--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -489,7 +489,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-lst-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {extension('http://hl7.org.au/fhir/StructureDefinition/list-source-role').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-lst-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
   </si>
   <si>
     <t>sourceRelatedPerson</t>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="298">
   <si>
     <t>Path</t>
   </si>
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-03:The subject reference shall at least have a reference or an identifier {subject.reference.exists()}inv-dh-lst-04:The encounter reference shall at least have a reference {encounter.exists() implies encounter .reference.exists()}inv-dh-lst-05:The source reference  shall at least have a reference or an identifier {source.reference.exists()}inv-dh-lst-07:The author role reference shall at least have a reference or an identifier {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.exists()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
@@ -637,18 +637,7 @@
     <t>Lists often contain subsets of resources rather than an exhaustive list.  The code identifies what type of subset is included.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="10160-0"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>What the purpose of a list is</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-example-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/medicines-list-type-1</t>
   </si>
   <si>
     <t>.code</t>
@@ -818,8 +807,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-lst-06:The medicine item reference shall at least have a reference {item.reference.exists()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
@@ -3614,31 +3603,29 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3671,15 +3658,15 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3702,19 +3689,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3763,7 +3750,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3778,15 +3765,15 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3809,13 +3796,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3866,7 +3853,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3881,15 +3868,15 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3912,19 +3899,19 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -3973,7 +3960,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3988,19 +3975,19 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4019,19 +4006,19 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4080,7 +4067,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4095,15 +4082,15 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4129,16 +4116,16 @@
         <v>193</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4163,46 +4150,46 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4210,7 +4197,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4233,13 +4220,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4290,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4305,7 +4292,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4313,7 +4300,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4336,16 +4323,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4395,7 +4382,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4404,13 +4391,13 @@
         <v>40</v>
       </c>
       <c r="AH31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4418,7 +4405,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4521,7 +4508,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4622,10 +4609,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>41</v>
@@ -4647,13 +4634,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4727,11 +4714,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4756,7 +4743,7 @@
         <v>157</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>72</v>
@@ -4809,7 +4796,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4832,7 +4819,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4858,16 +4845,16 @@
         <v>193</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -4896,7 +4883,7 @@
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -4914,7 +4901,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4937,7 +4924,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4960,22 +4947,22 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -5021,7 +5008,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5030,13 +5017,13 @@
         <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -5044,7 +5031,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5067,19 +5054,19 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5128,7 +5115,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5143,7 +5130,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -5151,7 +5138,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5174,13 +5161,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5231,7 +5218,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>48</v>
@@ -5246,7 +5233,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -5254,7 +5241,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5280,16 +5267,16 @@
         <v>193</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5314,46 +5301,46 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="323">
   <si>
     <t>Path</t>
   </si>
@@ -147,11 +147,11 @@
     <t>A list of medicine items for a patient</t>
   </si>
   <si>
-    <t>A set of information summarized from a list of other resources.</t>
+    <t>A list of medicines authored by a provider at a point in time that describes the medicines an individual is taking.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-03:The subject reference shall at least have a reference or an identifier {subject.reference.exists()}inv-dh-lst-04:The encounter reference shall at least have a reference {encounter.exists() implies encounter .reference.exists()}inv-dh-lst-05:The source reference  shall at least have a reference or an identifier {source.reference.exists()}inv-dh-lst-07:The author role reference shall at least have a reference or an identifier {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-02:The source shall at least have a reference or an identifier with at least a system and a value {source.reference.exists() or source.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-03:The author role shall at least have a reference or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.reference.exists() or extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
@@ -201,7 +201,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-lst-01:One meta.profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-sml-pracchanges-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-sml-pracchanges-1').exists()}
+    <t xml:space="preserve">inv-dh-lst-04:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-sml-pracchanges-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-sml-pracchanges-1').exists()}
 </t>
   </si>
   <si>
@@ -394,6 +394,9 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
+    <t>en-AU</t>
+  </si>
+  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -489,7 +492,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-lst-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-lst-05:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
   </si>
   <si>
     <t>sourceRelatedPerson</t>
@@ -690,6 +693,66 @@
     <t>context</t>
   </si>
   <si>
+    <t>List.encounter.id</t>
+  </si>
+  <si>
+    <t>List.encounter.extension</t>
+  </si>
+  <si>
+    <t>List.encounter.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>List.encounter.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>List.encounter.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>List.date</t>
   </si>
   <si>
@@ -726,7 +789,7 @@
 </t>
   </si>
   <si>
-    <t>Practitioner referenced by list source role</t>
+    <t>Practitioner referenced by practitioner role that authored the list</t>
   </si>
   <si>
     <t>The entity responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
@@ -807,8 +870,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-lst-06:The medicine item reference shall at least have a reference {item.reference.exists()}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
@@ -926,6 +989,21 @@
   </si>
   <si>
     <t>.target or .role or .role.entity</t>
+  </si>
+  <si>
+    <t>List.entry.item.id</t>
+  </si>
+  <si>
+    <t>List.entry.item.extension</t>
+  </si>
+  <si>
+    <t>List.entry.item.reference</t>
+  </si>
+  <si>
+    <t>List.entry.item.identifier</t>
+  </si>
+  <si>
+    <t>List.entry.item.display</t>
   </si>
   <si>
     <t>List.emptyReason</t>
@@ -1098,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1117,7 +1195,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2418,7 +2496,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>48</v>
@@ -2450,7 +2528,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>41</v>
@@ -2471,10 +2549,10 @@
         <v>99</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2492,7 +2570,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2515,11 +2593,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2538,16 +2616,16 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2597,7 +2675,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2606,13 +2684,13 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -2620,11 +2698,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2643,16 +2721,16 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2702,7 +2780,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2717,7 +2795,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -2725,7 +2803,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2751,10 +2829,10 @@
         <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2803,7 +2881,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2826,10 +2904,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>41</v>
@@ -2851,13 +2929,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2908,7 +2986,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2917,10 +2995,10 @@
         <v>40</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>41</v>
@@ -2931,10 +3009,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>41</v>
@@ -2956,13 +3034,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3013,7 +3091,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -3022,10 +3100,10 @@
         <v>40</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>41</v>
@@ -3036,7 +3114,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3062,10 +3140,10 @@
         <v>69</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>72</v>
@@ -3118,7 +3196,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3133,7 +3211,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -3141,7 +3219,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3164,13 +3242,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3221,7 +3299,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3236,15 +3314,15 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3270,13 +3348,13 @@
         <v>117</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3284,7 +3362,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -3302,13 +3380,13 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3326,7 +3404,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>48</v>
@@ -3341,15 +3419,15 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3375,23 +3453,23 @@
         <v>117</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>41</v>
@@ -3409,13 +3487,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -3433,7 +3511,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>48</v>
@@ -3448,15 +3526,15 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3482,14 +3560,14 @@
         <v>62</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3502,7 +3580,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -3538,7 +3616,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3553,7 +3631,7 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -3561,7 +3639,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3584,19 +3662,19 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3621,11 +3699,11 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3643,7 +3721,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3658,15 +3736,15 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3689,19 +3767,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3750,7 +3828,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3765,15 +3843,15 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3796,13 +3874,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3853,7 +3931,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3868,15 +3946,15 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3884,35 +3962,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -3960,7 +4034,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3975,51 +4049,49 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4055,25 +4127,25 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4082,15 +4154,15 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4098,7 +4170,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>48</v>
@@ -4110,23 +4182,21 @@
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4150,13 +4220,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4174,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4183,21 +4253,21 @@
         <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4208,27 +4278,29 @@
         <v>39</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4277,13 +4349,13 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
@@ -4292,15 +4364,15 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4308,31 +4380,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4382,30 +4454,30 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4413,31 +4485,35 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -4485,7 +4561,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4500,47 +4576,51 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -4576,23 +4656,25 @@
         <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -4601,19 +4683,17 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
@@ -4625,7 +4705,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -4634,16 +4714,20 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
@@ -4667,13 +4751,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -4691,34 +4775,34 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4728,26 +4812,24 @@
         <v>40</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -4796,7 +4878,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4811,7 +4893,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -4819,7 +4901,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4830,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>49</v>
@@ -4842,20 +4924,18 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
@@ -4879,11 +4959,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -4901,22 +4983,22 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -4924,7 +5006,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4941,28 +5023,24 @@
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>271</v>
+        <v>62</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -5008,7 +5086,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5017,13 +5095,13 @@
         <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>278</v>
+        <v>66</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -5031,7 +5109,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5042,7 +5120,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5054,20 +5132,16 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5103,25 +5177,23 @@
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5130,7 +5202,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -5138,15 +5210,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>48</v>
@@ -5161,13 +5235,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5218,22 +5292,22 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -5241,43 +5315,41 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -5301,53 +5373,1105 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AF42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK40">
+  <autoFilter ref="A1:AK50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5357,7 +6481,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -640,7 +640,7 @@
     <t>Lists often contain subsets of resources rather than an exhaustive list.  The code identifies what type of subset is included.</t>
   </si>
   <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/medicines-list-type-1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/history-of-medication-use-type-1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1209,7 +1209,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.7109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -147,7 +147,7 @@
     <t>A list of medicine items for a patient</t>
   </si>
   <si>
-    <t>A list of medicines authored by a provider at a point in time that describes the medicines an individual is taking.</t>
+    <t>A list of medicines authored by a practitioner at a point in time that describes the medicines an individual is taking.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -301,7 +301,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/STU3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/STU3/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -640,7 +640,7 @@
     <t>Lists often contain subsets of resources rather than an exhaustive list.  The code identifies what type of subset is included.</t>
   </si>
   <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/history-of-medication-use-type-1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/history-of-medication-use-list-type-1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1209,7 +1209,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.7109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -492,7 +492,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-lst-05:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-lst-05:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
   </si>
   <si>
     <t>sourceRelatedPerson</t>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -652,7 +652,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-mhr-1)
 </t>
   </si>
   <si>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="322">
   <si>
     <t>Path</t>
   </si>
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-02:The source shall at least have a reference or an identifier with at least a system and a value {source.reference.exists() or source.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-03:The author role shall at least have a reference or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.reference.exists() or extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-02:The source shall at least have a reference or an identifier with at least a system and a value {source.reference.exists() or source.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-03:The author role shall at least have a reference to a practitioner role that conforms to PractitionerRole with Practitioner with Mandatory Identifier or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1') or extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
@@ -492,7 +492,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-lst-05:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>sourceRelatedPerson</t>
@@ -506,10 +506,6 @@
   </si>
   <si>
     <t>The entity (related person) responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -3103,7 +3099,7 @@
         <v>150</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>41</v>
@@ -3114,7 +3110,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3140,10 +3136,10 @@
         <v>69</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>72</v>
@@ -3196,7 +3192,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3219,7 +3215,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3242,13 +3238,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3299,7 +3295,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3314,15 +3310,15 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3348,13 +3344,13 @@
         <v>117</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3362,72 +3358,72 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W21" t="s" s="2">
+      <c r="X21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3453,88 +3449,88 @@
         <v>117</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3560,14 +3556,14 @@
         <v>62</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3580,58 +3576,58 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -3639,7 +3635,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3662,19 +3658,19 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3699,52 +3695,52 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3767,19 +3763,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3828,7 +3824,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3843,15 +3839,15 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3874,13 +3870,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3931,7 +3927,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3946,15 +3942,15 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4057,7 +4053,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4162,7 +4158,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4188,13 +4184,13 @@
         <v>62</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4244,16 +4240,16 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
@@ -4267,7 +4263,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4290,16 +4286,16 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4349,22 +4345,22 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4372,7 +4368,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4398,13 +4394,13 @@
         <v>62</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4454,7 +4450,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4477,7 +4473,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4500,19 +4496,19 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4561,7 +4557,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4576,19 +4572,19 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4607,19 +4603,19 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -4668,7 +4664,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4683,15 +4679,15 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4714,19 +4710,19 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -4751,46 +4747,46 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -4798,7 +4794,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4821,13 +4817,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4878,7 +4874,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4893,7 +4889,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -4901,7 +4897,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4924,16 +4920,16 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4983,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4992,13 +4988,13 @@
         <v>40</v>
       </c>
       <c r="AH36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AI36" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AI36" t="s" s="2">
+      <c r="AJ36" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -5006,7 +5002,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5109,7 +5105,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5210,10 +5206,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
@@ -5235,13 +5231,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5304,7 +5300,7 @@
         <v>150</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -5315,11 +5311,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5341,10 +5337,10 @@
         <v>69</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>72</v>
@@ -5397,7 +5393,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5420,7 +5416,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5443,19 +5439,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5480,11 +5476,11 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -5502,7 +5498,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5517,7 +5513,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -5525,7 +5521,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5548,22 +5544,22 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -5609,7 +5605,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5618,13 +5614,13 @@
         <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -5632,7 +5628,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5655,19 +5651,19 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -5716,7 +5712,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5731,7 +5727,7 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -5739,7 +5735,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5762,13 +5758,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5819,7 +5815,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>48</v>
@@ -5834,7 +5830,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -5842,7 +5838,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5945,7 +5941,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6050,7 +6046,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6076,13 +6072,13 @@
         <v>62</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6132,16 +6128,16 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
@@ -6155,7 +6151,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6178,16 +6174,16 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6237,22 +6233,22 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
@@ -6260,7 +6256,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6286,13 +6282,13 @@
         <v>62</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6342,7 +6338,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6365,7 +6361,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6388,19 +6384,19 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -6425,46 +6421,46 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-02:The source shall at least have a reference or an identifier with at least a system and a value {source.reference.exists() or source.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-03:The author role shall at least have a reference to a practitioner role that conforms to PractitionerRole with Practitioner with Mandatory Identifier or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1') or extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-02:The source shall at least have a reference or an identifier with at least a system and a value {source.reference.exists() or source.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-03:The author role shall at least have a reference that conforms to PractitionerRole with Practitioner with Mandatory Identifier or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1') or extension('http://hl7.org.au/fhir/StructureDefinition/author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -5424,7 +5424,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>48</v>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="326">
   <si>
     <t>Path</t>
   </si>
@@ -506,6 +506,19 @@
   </si>
   <si>
     <t>The entity (related person) responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
+  </si>
+  <si>
+    <t>packed-in-daa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/packed-in-daa-1}
+</t>
+  </si>
+  <si>
+    <t>Inclusion of medicines packed in a Dose Administration Aid (DAA) indicator</t>
+  </si>
+  <si>
+    <t>Indicates whether one or more items in a medicines list are packed in a Dose Administration Aid (DAA).</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -1172,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK50"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1191,7 +1204,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3108,13 +3121,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3124,26 +3139,24 @@
         <v>40</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3192,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3207,7 +3220,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -3219,7 +3232,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3232,21 +3245,23 @@
         <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3295,7 +3310,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3310,15 +3325,15 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3326,104 +3341,102 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3437,7 +3450,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>49</v>
@@ -3449,23 +3462,21 @@
         <v>117</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>41</v>
@@ -3483,13 +3494,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -3507,7 +3518,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>48</v>
@@ -3522,15 +3533,15 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3538,45 +3549,47 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -3588,13 +3601,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3612,10 +3625,10 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>48</v>
@@ -3627,15 +3640,15 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3643,7 +3656,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>48</v>
@@ -3658,19 +3671,17 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3683,7 +3694,7 @@
         <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>41</v>
@@ -3695,11 +3706,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3717,7 +3730,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3732,15 +3745,15 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3763,19 +3776,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3800,13 +3813,11 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -3824,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3839,15 +3850,15 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3855,7 +3866,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>48</v>
@@ -3867,19 +3878,23 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -3927,7 +3942,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3942,15 +3957,15 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3964,7 +3979,7 @@
         <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -3973,13 +3988,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4030,7 +4045,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4045,26 +4060,26 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -4076,17 +4091,15 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4123,25 +4136,25 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4158,18 +4171,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
@@ -4178,19 +4191,19 @@
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4228,34 +4241,34 @@
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4263,7 +4276,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4271,7 +4284,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>48</v>
@@ -4286,16 +4299,16 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4345,7 +4358,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4354,13 +4367,13 @@
         <v>48</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4368,7 +4381,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4391,16 +4404,16 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4450,30 +4463,30 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4481,13 +4494,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -4496,20 +4509,18 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -4557,7 +4568,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4572,19 +4583,19 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4603,19 +4614,19 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -4664,7 +4675,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4679,50 +4690,50 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -4747,13 +4758,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -4771,7 +4782,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4786,15 +4797,15 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4805,10 +4816,10 @@
         <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -4817,16 +4828,20 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -4850,13 +4865,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -4874,13 +4889,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -4889,7 +4904,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -4897,7 +4912,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4905,7 +4920,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>40</v>
@@ -4920,17 +4935,15 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -4979,7 +4992,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4988,21 +5001,21 @@
         <v>40</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5010,13 +5023,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5025,15 +5038,17 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5082,22 +5097,22 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -5105,7 +5120,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5116,7 +5131,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5128,13 +5143,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5173,23 +5188,25 @@
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5198,19 +5215,17 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5219,10 +5234,10 @@
         <v>39</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -5231,13 +5246,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5276,16 +5291,14 @@
         <v>41</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>76</v>
@@ -5297,10 +5310,10 @@
         <v>40</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -5309,42 +5322,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5393,7 +5406,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5402,57 +5415,55 @@
         <v>40</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>285</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
@@ -5476,11 +5487,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -5498,13 +5511,13 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -5513,15 +5526,15 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5535,31 +5548,31 @@
         <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="O42" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -5581,13 +5594,11 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -5605,7 +5616,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5614,13 +5625,13 @@
         <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -5628,7 +5639,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5645,28 +5656,28 @@
         <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
@@ -5712,7 +5723,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5721,21 +5732,21 @@
         <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5743,13 +5754,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -5758,16 +5769,20 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
       </c>
@@ -5815,10 +5830,10 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>48</v>
@@ -5830,15 +5845,15 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5846,13 +5861,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -5861,13 +5876,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5918,10 +5933,10 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>48</v>
@@ -5933,7 +5948,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -5941,18 +5956,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
@@ -5964,17 +5979,15 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6011,25 +6024,25 @@
         <v>41</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6046,18 +6059,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>41</v>
@@ -6066,19 +6079,19 @@
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6116,34 +6129,34 @@
         <v>41</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
@@ -6151,7 +6164,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6159,7 +6172,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>48</v>
@@ -6174,16 +6187,16 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6233,7 +6246,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6242,13 +6255,13 @@
         <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
@@ -6256,7 +6269,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6279,16 +6292,16 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6338,7 +6351,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6353,7 +6366,7 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -6361,7 +6374,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6381,23 +6394,21 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
       </c>
@@ -6421,53 +6432,160 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="N51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK50">
+  <autoFilter ref="A1:AK51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6477,7 +6595,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
+++ b/output/SharedMedicinesList/list-sml-pracchanges-1.xlsx
@@ -3136,7 +3136,7 @@
         <v>39</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>49</v>
